--- a/Git.xlsx
+++ b/Git.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Main project multiple edits by different user</t>
   </si>
@@ -67,13 +67,16 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>I am a bisu branch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +107,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -137,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,6 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +472,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,9 +535,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="28.5">
       <c r="B8" t="s">
         <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/Git.xlsx
+++ b/Git.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Main project multiple edits by different user</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>I am a bisu branch</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -163,13 +166,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +475,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,13 +487,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -521,6 +524,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>2</v>
@@ -539,7 +547,7 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Git.xlsx
+++ b/Git.xlsx
@@ -69,7 +69,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>I am a master Copy</t>
+    <t>I am Master</t>
   </si>
 </sst>
 </file>
@@ -157,13 +157,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -478,13 +478,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -533,9 +533,7 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="4"/>
@@ -554,6 +552,11 @@
     <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
